--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efnb3-Rhbdl2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efnb3-Rhbdl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,9 +92,6 @@
   </si>
   <si>
     <t>Rhbdl2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.539735491108376</v>
+        <v>0.2222225</v>
       </c>
       <c r="H2">
-        <v>0.539735491108376</v>
+        <v>0.444445</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2026211956904957</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1780425712608937</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.6702176424464</v>
+        <v>2.675209</v>
       </c>
       <c r="N2">
-        <v>2.6702176424464</v>
+        <v>5.350417999999999</v>
       </c>
       <c r="O2">
-        <v>0.6260777234051949</v>
+        <v>0.6038885578943551</v>
       </c>
       <c r="P2">
-        <v>0.6260777234051949</v>
+        <v>0.5040571546736343</v>
       </c>
       <c r="Q2">
-        <v>1.441211230612058</v>
+        <v>0.5944916320024999</v>
       </c>
       <c r="R2">
-        <v>1.441211230612058</v>
+        <v>2.37796652801</v>
       </c>
       <c r="S2">
-        <v>0.6260777234051949</v>
+        <v>0.1223606216643634</v>
       </c>
       <c r="T2">
-        <v>0.6260777234051949</v>
+        <v>0.08974363188054385</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,433 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.2222225</v>
+      </c>
+      <c r="H3">
+        <v>0.444445</v>
+      </c>
+      <c r="I3">
+        <v>0.2026211956904957</v>
+      </c>
+      <c r="J3">
+        <v>0.1780425712608937</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1.754762333333333</v>
+      </c>
+      <c r="N3">
+        <v>5.264286999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.3961114421056449</v>
+      </c>
+      <c r="P3">
+        <v>0.4959428453263656</v>
+      </c>
+      <c r="Q3">
+        <v>0.3899476726191666</v>
+      </c>
+      <c r="R3">
+        <v>2.339686035715</v>
+      </c>
+      <c r="S3">
+        <v>0.08026057402613235</v>
+      </c>
+      <c r="T3">
+        <v>0.08829893938034983</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.2207143333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.662143</v>
+      </c>
+      <c r="I4">
+        <v>0.2012460580095654</v>
+      </c>
+      <c r="J4">
+        <v>0.2652513635261999</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2.675209</v>
+      </c>
+      <c r="N4">
+        <v>5.350417999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.6038885578943551</v>
+      </c>
+      <c r="P4">
+        <v>0.5040571546736343</v>
+      </c>
+      <c r="Q4">
+        <v>0.5904569709623333</v>
+      </c>
+      <c r="R4">
+        <v>3.542741825774</v>
+      </c>
+      <c r="S4">
+        <v>0.1215301917533202</v>
+      </c>
+      <c r="T4">
+        <v>0.1337018475723182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.2207143333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.662143</v>
+      </c>
+      <c r="I5">
+        <v>0.2012460580095654</v>
+      </c>
+      <c r="J5">
+        <v>0.2652513635261999</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.754762333333333</v>
+      </c>
+      <c r="N5">
+        <v>5.264286999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.3961114421056449</v>
+      </c>
+      <c r="P5">
+        <v>0.4959428453263656</v>
+      </c>
+      <c r="Q5">
+        <v>0.3873011985601111</v>
+      </c>
+      <c r="R5">
+        <v>3.485710787041</v>
+      </c>
+      <c r="S5">
+        <v>0.0797158662562452</v>
+      </c>
+      <c r="T5">
+        <v>0.1315495159538818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.539735491108376</v>
-      </c>
-      <c r="H3">
-        <v>0.539735491108376</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1.5947762115487</v>
-      </c>
-      <c r="N3">
-        <v>1.5947762115487</v>
-      </c>
-      <c r="O3">
-        <v>0.3739222765948052</v>
-      </c>
-      <c r="P3">
-        <v>0.3739222765948052</v>
-      </c>
-      <c r="Q3">
-        <v>0.8607573217481931</v>
-      </c>
-      <c r="R3">
-        <v>0.8607573217481931</v>
-      </c>
-      <c r="S3">
-        <v>0.3739222765948052</v>
-      </c>
-      <c r="T3">
-        <v>0.3739222765948052</v>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.08209333333333334</v>
+      </c>
+      <c r="H6">
+        <v>0.24628</v>
+      </c>
+      <c r="I6">
+        <v>0.07485222854669725</v>
+      </c>
+      <c r="J6">
+        <v>0.09865860668954066</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.675209</v>
+      </c>
+      <c r="N6">
+        <v>5.350417999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.6038885578943551</v>
+      </c>
+      <c r="P6">
+        <v>0.5040571546736343</v>
+      </c>
+      <c r="Q6">
+        <v>0.2196168241733333</v>
+      </c>
+      <c r="R6">
+        <v>1.31770094504</v>
+      </c>
+      <c r="S6">
+        <v>0.04520240435224369</v>
+      </c>
+      <c r="T6">
+        <v>0.04972957657199505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.08209333333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.24628</v>
+      </c>
+      <c r="I7">
+        <v>0.07485222854669725</v>
+      </c>
+      <c r="J7">
+        <v>0.09865860668954066</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.754762333333333</v>
+      </c>
+      <c r="N7">
+        <v>5.264286999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.3961114421056449</v>
+      </c>
+      <c r="P7">
+        <v>0.4959428453263656</v>
+      </c>
+      <c r="Q7">
+        <v>0.1440542891511111</v>
+      </c>
+      <c r="R7">
+        <v>1.29648860236</v>
+      </c>
+      <c r="S7">
+        <v>0.02964982419445357</v>
+      </c>
+      <c r="T7">
+        <v>0.0489290301175456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5717085</v>
+      </c>
+      <c r="H8">
+        <v>1.143417</v>
+      </c>
+      <c r="I8">
+        <v>0.5212805177532418</v>
+      </c>
+      <c r="J8">
+        <v>0.4580474585233657</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.675209</v>
+      </c>
+      <c r="N8">
+        <v>5.350417999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.6038885578943551</v>
+      </c>
+      <c r="P8">
+        <v>0.5040571546736343</v>
+      </c>
+      <c r="Q8">
+        <v>1.5294397245765</v>
+      </c>
+      <c r="R8">
+        <v>6.117758898305999</v>
+      </c>
+      <c r="S8">
+        <v>0.314795340124428</v>
+      </c>
+      <c r="T8">
+        <v>0.2308820986487772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5717085</v>
+      </c>
+      <c r="H9">
+        <v>1.143417</v>
+      </c>
+      <c r="I9">
+        <v>0.5212805177532418</v>
+      </c>
+      <c r="J9">
+        <v>0.4580474585233657</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.754762333333333</v>
+      </c>
+      <c r="N9">
+        <v>5.264286999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.3961114421056449</v>
+      </c>
+      <c r="P9">
+        <v>0.4959428453263656</v>
+      </c>
+      <c r="Q9">
+        <v>1.0032125414465</v>
+      </c>
+      <c r="R9">
+        <v>6.019275248678999</v>
+      </c>
+      <c r="S9">
+        <v>0.2064851776288139</v>
+      </c>
+      <c r="T9">
+        <v>0.2271653598745884</v>
       </c>
     </row>
   </sheetData>
